--- a/架構文檔.xlsx
+++ b/架構文檔.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="169">
   <si>
     <t>一、</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>功能清單之通知模組需使用n8n實作尚未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設計師休假日尚未校正成存入星期幾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的創建語法都須返回新id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1740,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1753,6 +1761,16 @@
         <v>166</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
